--- a/data/trans_bre/P19C06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,24%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 0,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 1,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 1,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 1,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,67; 62,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,68; 469,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,29; 441,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,18; 175,69</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,09%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 1,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 1,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 0,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 0,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,06; 191,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,73; 181,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,64; 64,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,15; 133,65</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,88%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 2,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 1,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 2,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 1,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,91; 592,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,26; 552,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,44; 827,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,95; 643,03</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,7%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 0,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 1,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 0,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 0,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,54; 77,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,06; 156,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,88; 88,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,58; 118,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>-13,31%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,24</t>
+          <t>-3,42; 1,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-74,18; 175,69</t>
+          <t>-82,21; 170,93</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>17,65%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,64</t>
+          <t>-0,41; 0,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 133,65</t>
+          <t>-44,09; 141,09</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>103,88%</t>
+          <t>111,24%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,81</t>
+          <t>-0,14; 1,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 643,03</t>
+          <t>-30,77; 676,35</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>27,2%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 0,72</t>
+          <t>-0,39; 0,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 118,67</t>
+          <t>-34,31; 121,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,38</t>
+          <t>-1,88; 0,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,43</t>
+          <t>-0,3; 1,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,93</t>
+          <t>-0,75; 1,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,2</t>
+          <t>-3,66; 1,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,67; 62,62</t>
+          <t>-77,92; 47,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,68; 469,54</t>
+          <t>-41,88; 626,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-59,29; 441,26</t>
+          <t>-50,91; 430,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-82,21; 170,93</t>
+          <t>-82,56; 183,58</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,04</t>
+          <t>-0,56; 1,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,33</t>
+          <t>-0,32; 1,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,57</t>
+          <t>-1,02; 0,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,62</t>
+          <t>-0,39; 0,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,06; 191,34</t>
+          <t>-42,64; 186,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 181,39</t>
+          <t>-26,14; 179,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,64; 64,58</t>
+          <t>-54,57; 71,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 141,09</t>
+          <t>-42,64; 155,53</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,47</t>
+          <t>-0,64; 2,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,97</t>
+          <t>-1,37; 1,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,44</t>
+          <t>-0,38; 2,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,83</t>
+          <t>-0,14; 1,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-69,91; 592,17</t>
+          <t>-59,28; 872,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,26; 552,9</t>
+          <t>-80,1; 464,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 827,37</t>
+          <t>-55,49; 861,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 676,35</t>
+          <t>-38,93; 672,06</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,59</t>
+          <t>-0,65; 0,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,1</t>
+          <t>-0,07; 1,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,74</t>
+          <t>-0,53; 0,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,67</t>
+          <t>-0,26; 0,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 77,61</t>
+          <t>-45,7; 69,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 156,87</t>
+          <t>-7,65; 151,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,88; 88,79</t>
+          <t>-35,55; 82,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 121,41</t>
+          <t>-24,97; 130,02</t>
         </is>
       </c>
     </row>
